--- a/frontend/public/advice_f.xlsx
+++ b/frontend/public/advice_f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\marriage-system\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8609A00-ABFF-4D25-9410-EAA01469C305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8B918D-AA5A-4C71-B0FF-2EEC216B5216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{4425C5A9-07BB-4026-BB5F-F4D73C720D31}"/>
   </bookViews>
@@ -1635,7 +1635,7 @@
   <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="BG10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3342,7 +3342,7 @@
   <dimension ref="A1:AK64"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="BG34" sqref="BG34"/>
+      <selection activeCell="AW26" sqref="AW26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4264,7 +4264,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:Z10"/>
+      <selection activeCell="AG15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4480,7 +4480,7 @@
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:S9"/>
+      <selection activeCell="Y14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4640,7 +4640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A5B91E-F853-4C97-BD91-7FAFCF8F95DF}">
   <dimension ref="A1:AY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E44" sqref="E44:P44"/>
     </sheetView>
   </sheetViews>

--- a/frontend/public/advice_f.xlsx
+++ b/frontend/public/advice_f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\marriage-system\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8B918D-AA5A-4C71-B0FF-2EEC216B5216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90675550-8BF1-462B-9A09-EAC735A6D787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{4425C5A9-07BB-4026-BB5F-F4D73C720D31}"/>
   </bookViews>
@@ -1635,7 +1635,7 @@
   <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="BG10" sqref="A1:XFD1048576"/>
+      <selection activeCell="AX8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3341,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05075C91-2CFC-4A84-ABBB-BD92D5FAB8F9}">
   <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AW26" sqref="AW26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AU25" sqref="AU25:AV25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4264,7 +4264,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG15" sqref="A1:XFD1048576"/>
+      <selection activeCell="AJ15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4480,7 +4480,7 @@
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y14" sqref="A1:XFD1048576"/>
+      <selection activeCell="W17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4640,8 +4640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A5B91E-F853-4C97-BD91-7FAFCF8F95DF}">
   <dimension ref="A1:AY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:P44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="BA53" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
